--- a/Data/mGF_PH.xlsx
+++ b/Data/mGF_PH.xlsx
@@ -158,9 +158,6 @@
     <t>InvestCost</t>
   </si>
   <si>
-    <t xml:space="preserve">Million EUR / (GJ/h generating capacity) </t>
-  </si>
-  <si>
     <t>BP</t>
   </si>
   <si>
@@ -501,6 +498,9 @@
   </si>
   <si>
     <t>TechCap_H/TechCap_H</t>
+  </si>
+  <si>
+    <t>Million EUR / (GJ/h generating capacity)</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,47 +874,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -922,26 +922,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
         <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,12 +992,12 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -1045,159 +1045,159 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
         <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
         <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
         <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="C24" r:id="rId2" display="https://iea-etsap.org/E-TechDS/PDF/E01-coal-fired-power-GS-AD-gct_FINAL.pdf"/>
-    <hyperlink ref="C25" r:id="rId3" display="https://iea-etsap.org/E-TechDS/PDF/E02-gas_fired_power-GS-AD-gct_FINAL.pdf"/>
-    <hyperlink ref="C26" r:id="rId4" display="https://iea-etsap.org/E-TechDS/PDF/E03-Nuclear-Power-GS-AD-gct_FINAL.pdf"/>
-    <hyperlink ref="C27" r:id="rId5" display="https://iea-etsap.org/E-TechDS/PDF/E01-coal-fired-power-GS-AD-gct_FINAL.pdf"/>
-    <hyperlink ref="C28" r:id="rId6" display="https://iea-etsap.org/E-TechDS/PDF/E02-gas_fired_power-GS-AD-gct_FINAL.pdf"/>
-    <hyperlink ref="C29" r:id="rId7" display="https://iea-etsap.org/E-TechDS/PDF/E03-Nuclear-Power-GS-AD-gct_FINAL.pdf"/>
+    <hyperlink ref="C25" r:id="rId2" display="https://iea-etsap.org/E-TechDS/PDF/E02-gas_fired_power-GS-AD-gct_FINAL.pdf"/>
+    <hyperlink ref="C26" r:id="rId3" display="https://iea-etsap.org/E-TechDS/PDF/E03-Nuclear-Power-GS-AD-gct_FINAL.pdf"/>
+    <hyperlink ref="C27" r:id="rId4" display="https://iea-etsap.org/E-TechDS/PDF/E01-coal-fired-power-GS-AD-gct_FINAL.pdf"/>
+    <hyperlink ref="C28" r:id="rId5" display="https://iea-etsap.org/E-TechDS/PDF/E02-gas_fired_power-GS-AD-gct_FINAL.pdf"/>
+    <hyperlink ref="C29" r:id="rId6" display="https://iea-etsap.org/E-TechDS/PDF/E03-Nuclear-Power-GS-AD-gct_FINAL.pdf"/>
+    <hyperlink ref="C24" r:id="rId7" display="https://iea-etsap.org/E-TechDS/PDF/E01-coal-fired-power-GS-AD-gct_FINAL.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -1216,16 +1216,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,25 +1280,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>9.4370000000000009E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>5.7000000000000002E-2</v>
@@ -1352,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1360,16 +1360,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4">
         <v>0.47</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,45 +1402,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1449,13 +1449,13 @@
         <v>0.1</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2">
         <v>400</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1481,13 +1481,13 @@
         <v>0.3</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3">
         <v>400</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1507,7 +1507,7 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1528,7 +1528,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1569,7 +1569,7 @@
         <v>0.3</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1610,7 +1610,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1640,27 +1640,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1668,13 +1668,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1691,38 +1691,38 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1792,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,16 +1829,16 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1859,22 +1859,22 @@
         <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>28</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1895,25 +1895,25 @@
         <v>2.0408163265306123</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>2.9</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2">
         <f>31000/(3.6*1000)</f>
@@ -1930,7 +1930,7 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="2">
         <v>200</v>
@@ -1945,7 +1945,7 @@
         <v>1000</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2">
         <v>0.84</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1963,25 +1963,25 @@
         <v>1.9607843137254901</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3">
         <v>4.4000000000000004</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2">
         <f>29300/(3.6*1000)</f>
@@ -1998,7 +1998,7 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" s="2">
         <v>1000</v>
@@ -2013,7 +2013,7 @@
         <v>1000</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3">
         <v>1.3</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2031,25 +2031,25 @@
         <v>3.2258064516129035</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>0.56999999999999995</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2">
         <f>124000/(3.6*1000)</f>
@@ -2066,7 +2066,7 @@
         <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="2">
         <v>500</v>
@@ -2081,7 +2081,7 @@
         <v>1000</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U4">
         <v>0.46</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -2099,32 +2099,32 @@
         <v>2.0408163265306123</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>2.9</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2">
         <f>31000/(3.6*1000)</f>
         <v>8.6111111111111107</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2">
         <f>2000*1000/(3.6*1000000)</f>
@@ -2134,7 +2134,7 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" s="2">
         <v>1000</v>
@@ -2143,13 +2143,13 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S5" s="2">
         <v>1000</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5">
         <v>0.84</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2167,32 +2167,32 @@
         <v>1.9607843137254901</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <v>4.4000000000000004</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2">
         <f>29300/(3.6*1000)</f>
         <v>8.1388888888888893</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2">
         <f>1000*1000/(3.6*1000000)</f>
@@ -2202,7 +2202,7 @@
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2">
         <v>200</v>
@@ -2211,13 +2211,13 @@
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S6" s="2">
         <v>1000</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6">
         <v>1.3</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -2235,32 +2235,32 @@
         <v>3.2258064516129035</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7">
         <v>0.56999999999999995</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2">
         <f>124000/(3.6*1000)</f>
         <v>34.444444444444443</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="2">
         <f>2500*1000/(3.6*1000000)</f>
@@ -2270,7 +2270,7 @@
         <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" s="2">
         <v>1000</v>
@@ -2279,13 +2279,13 @@
         <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S7" s="2">
         <v>1000</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U7">
         <v>0.46</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -2303,32 +2303,32 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2">
         <f>88*1000/(3.6*1000)</f>
         <v>24.444444444444443</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8" s="2">
         <f>2.12/3.6</f>
@@ -2338,7 +2338,7 @@
         <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P8" s="2">
         <v>500</v>
@@ -2347,13 +2347,13 @@
         <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S8" s="2">
         <v>500</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U8">
         <f>-1/3.5</f>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2372,32 +2372,32 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
         <f>30*1000/(3.6*1000)</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M9" s="2">
         <f>0.56/3.6</f>
@@ -2407,7 +2407,7 @@
         <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P9" s="2">
         <v>1000</v>
@@ -2416,13 +2416,13 @@
         <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S9" s="2">
         <v>500</v>
       </c>
       <c r="T9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U9">
         <f>-1/3.5</f>
@@ -2431,36 +2431,36 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <f>1/0.5</f>
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2">
         <f>10*1000/(3.6*1000)</f>
         <v>2.7777777777777777</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2">
         <f>0.71/3.6</f>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -2491,26 +2491,26 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2">
         <f>88*1000/(3.6*1000)</f>
         <v>24.444444444444443</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="2">
         <f>0.06/3.6</f>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2541,26 +2541,26 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2">
         <f>30*1000/(3.6*1000)</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M12" s="2">
         <f>0.31/3.6</f>
@@ -2581,36 +2581,36 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <f>1/0.5</f>
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="2">
         <f>10*1000/(3.6*1000)</f>
         <v>2.7777777777777777</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="2">
         <f>0.86/3.6</f>
@@ -2623,7 +2623,7 @@
         <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S13" s="2">
         <v>1000</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2641,19 +2641,19 @@
         <v>0.99009900990099009</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="2">
         <f>50000/(3.6*1000)</f>
@@ -2663,7 +2663,7 @@
         <v>22</v>
       </c>
       <c r="R14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S14" s="2">
         <v>1000</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2681,19 +2681,19 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2">
         <f>11300/(3.6*1000)</f>
@@ -2703,7 +2703,7 @@
         <v>22</v>
       </c>
       <c r="R15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S15" s="2">
         <v>1000</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -2721,19 +2721,19 @@
         <v>0.99009900990099009</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="2">
         <f>50000/(3.6*1000)</f>
@@ -2743,7 +2743,7 @@
         <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S16" s="2">
         <v>500</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2761,19 +2761,19 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="2">
         <f>11300/(3.6*1000)</f>
@@ -2783,7 +2783,7 @@
         <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S17" s="2">
         <v>500</v>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <v>1.96</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="2">
         <f>32700/(3.6*1000)</f>
@@ -2806,13 +2806,13 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19">
         <v>1.1000000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" s="2">
         <f>1950/(3.6*1000)</f>
@@ -2821,13 +2821,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20">
         <v>0.21</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="2">
         <f>60.8/(3.6*1000)</f>
@@ -2836,13 +2836,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21">
         <v>1.69</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="2">
         <f>2000/(3.6*1000)</f>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22">
         <v>1.96</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" s="2">
         <f>32700/(3.6*1000)</f>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>1.1000000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K23" s="2">
         <f>1950/(3.6*1000)</f>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24">
         <v>0.21</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="2">
         <f>60.8/(3.6*1000)</f>
@@ -2896,13 +2896,13 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25">
         <v>1.69</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25" s="2">
         <f>2000/(3.6*1000)</f>
@@ -2920,7 +2920,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,27 +2954,27 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2983,24 +2983,24 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3009,24 +3009,24 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -3035,258 +3035,258 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -3294,19 +3294,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -3314,19 +3314,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -3334,19 +3334,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -3354,19 +3354,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -3374,19 +3374,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
@@ -3394,19 +3394,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -3414,19 +3414,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -3434,19 +3434,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3454,19 +3454,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -3474,19 +3474,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -3494,19 +3494,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -3529,28 +3529,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3677,7 +3677,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1">
         <v>25</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.05</v>

--- a/Data/mGF_PH.xlsx
+++ b/Data/mGF_PH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="122">
   <si>
     <t>Coal</t>
   </si>
@@ -393,15 +393,22 @@
   </si>
   <si>
     <t>E2H/id</t>
+  </si>
+  <si>
+    <t>CapFactor/tech</t>
+  </si>
+  <si>
+    <t>CapFactor/CapFactor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -448,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -457,6 +464,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1400,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1500,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,15 +1525,16 @@
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -1554,31 +1563,37 @@
         <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1607,31 +1622,37 @@
         <v>29.426363261689009</v>
       </c>
       <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.38812785388127852</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <v>0.84</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>1000</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1660,31 +1681,37 @@
         <v>20.133827494839849</v>
       </c>
       <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.15334212328767124</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>1.3</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>1000</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1713,31 +1740,37 @@
         <v>36.8357557211691</v>
       </c>
       <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.50228310502283102</v>
+      </c>
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>0.48902215799999998</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>1000</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1766,31 +1799,37 @@
         <v>16.463072925014298</v>
       </c>
       <c r="J5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.4680365296803653</v>
+      </c>
+      <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="K5">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>-0.28571428571428598</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>1000</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1818,26 +1857,33 @@
       <c r="I6" s="5">
         <v>7.0599653473300217</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <f>1316/8760</f>
+        <v>0.15022831050228311</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>1000</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1865,17 +1911,19 @@
       <c r="I7" s="5">
         <v>31.136678020317181</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="N7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -1903,17 +1951,19 @@
       <c r="I8" s="5">
         <v>25.014032785009661</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="N8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1941,17 +1991,19 @@
       <c r="I9" s="5">
         <v>30.975119222830539</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1970,17 +2022,19 @@
       <c r="I10" s="5">
         <v>15.48755961141527</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="N10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1999,17 +2053,19 @@
       <c r="I11" s="5">
         <v>34.398098247203741</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="N11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2028,17 +2084,19 @@
       <c r="I12" s="5">
         <v>11.067647723944468</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="N12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2057,8 +2115,10 @@
       <c r="I13" s="5">
         <v>13.261172443317548</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2077,8 +2137,10 @@
       <c r="I14" s="5">
         <v>0.92925357668491615</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2097,8 +2159,10 @@
       <c r="I15" s="5">
         <v>4.2055790102559722</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2112,8 +2176,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -2127,45 +2193,73 @@
         <v>1</v>
       </c>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,11 +2725,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2668,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2677,10 +2772,10 @@
         <v>0.7</v>
       </c>
       <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
         <v>0.05</v>
-      </c>
-      <c r="G2">
-        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,19 +2786,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
         <v>0.2</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2714,19 +2809,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E4">
         <v>0.6</v>
       </c>
       <c r="F4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2737,19 +2832,24 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <f>$A5*GeneratorsVariables!$K$2-SUM(C2:C4)</f>
+        <v>0.81251141552511408</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <f>$A5*GeneratorsVariables!$K$3-SUM(D2:D4)</f>
+        <v>0.11336849315068498</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <f>$A5*GeneratorsVariables!$K$4-SUM(E2:E4)</f>
+        <v>0.50913242009132409</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>$A5*GeneratorsVariables!$K$5-SUM(F2:F4)</f>
+        <v>0.37214611872146119</v>
       </c>
       <c r="G5">
-        <v>0.15</v>
+        <f>$A5*GeneratorsVariables!$K$6-SUM(G2:G4)</f>
+        <v>0.12091324200913239</v>
       </c>
     </row>
   </sheetData>

--- a/Data/mGF_PH.xlsx
+++ b/Data/mGF_PH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,9 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1510,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1602,7 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>2.9</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1663,7 +1661,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>4.4000000000000004</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1722,7 +1720,7 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>1.726247463</v>
+        <v>0.47951318416666666</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1781,7 +1779,7 @@
         <v>98</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1894,7 +1892,7 @@
         <v>99</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -1934,7 +1932,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -1974,7 +1972,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -2014,7 +2012,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -2045,7 +2043,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -2076,7 +2074,7 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <v>1.9617378029999999</v>
+        <v>0.54492716749999992</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -2107,7 +2105,7 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>1.69</v>
+        <v>0.46944444444444444</v>
       </c>
       <c r="H13" t="s">
         <v>38</v>
@@ -2129,7 +2127,7 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>1.1000000000000001</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -2151,7 +2149,7 @@
         <v>37</v>
       </c>
       <c r="D15">
-        <v>0.21</v>
+        <v>5.8333333333333327E-2</v>
       </c>
       <c r="H15" t="s">
         <v>37</v>
@@ -2173,7 +2171,7 @@
         <v>103</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2190,7 +2188,7 @@
         <v>104</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
